--- a/data/trans_dic/P44A$otras-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,75</t>
+          <t>0,0; 32,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 29,08</t>
+          <t>3,61; 29,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,66; 69,8</t>
+          <t>26,69; 69,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 79,13</t>
+          <t>17,61; 79,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,15</t>
+          <t>0,0; 5,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 48,57</t>
+          <t>16,49; 49,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 38,91</t>
+          <t>10,78; 38,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 35,29</t>
+          <t>8,1; 38,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,87; 40,76</t>
+          <t>14,84; 40,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,82; 51,49</t>
+          <t>12,37; 49,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,04; 41,93</t>
+          <t>11,21; 42,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,51; 35,88</t>
+          <t>13,72; 36,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,2; 35,96</t>
+          <t>15,71; 35,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,66</t>
+          <t>0,0; 22,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,77; 47,43</t>
+          <t>17,78; 46,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,48</t>
+          <t>0,38; 3,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,72; 47,55</t>
+          <t>15,91; 49,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,18; 43,32</t>
+          <t>12,78; 44,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,61; 30,82</t>
+          <t>10,3; 30,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,95; 40,13</t>
+          <t>19,24; 40,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,97</t>
+          <t>0,32; 2,12</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,38; 45,77</t>
+          <t>12,46; 49,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,36; 32,91</t>
+          <t>8,05; 33,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,32 +1361,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,53; 58,26</t>
+          <t>17,14; 62,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,56; 39,64</t>
+          <t>8,46; 42,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,88</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,18; 46,81</t>
+          <t>18,61; 46,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 32,21</t>
+          <t>11,45; 30,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,48; 25,45</t>
+          <t>9,37; 24,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,79; 30,59</t>
+          <t>16,66; 30,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,08</t>
+          <t>0,07; 1,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,5; 44,25</t>
+          <t>25,06; 44,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,16; 35,65</t>
+          <t>17,96; 34,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,17</t>
+          <t>0,16; 1,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,54; 32,02</t>
+          <t>18,96; 31,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,02; 29,64</t>
+          <t>19,62; 30,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,97</t>
+          <t>0,16; 0,89</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado otra prueba para detectar cáncer de cólon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3239</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9879</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5132</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10919</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8372</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2189</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4613</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>968; 7809</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7733</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5475; 14211</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1944; 8809</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4196</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5720; 17031</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4077; 14563</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8799</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7494</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13309</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9227</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17484</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22536</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3185; 14974</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7774; 21148</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1613</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4178; 16608</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4243; 15934</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1064</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10029; 26645</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14178; 32096</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1307</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2098</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13427</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9574</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8054</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11672</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21481</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2714</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6965</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7809; 20582</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>618; 5725</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4992; 15472</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3987; 13831</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1871</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6384; 18746</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14447; 30337</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>986; 6509</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7259</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>6449</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>7840</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7844</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>15099</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>14294</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3144; 12481</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2947; 12169</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1209</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3649; 13298</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3051; 15457</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2601</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8658; 21546</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8318; 22182</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3002</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>17892</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>36425</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>37283</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>30257</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>55176</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>66682</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>5499</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>10251; 27241</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>26601; 47997</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>509; 8172</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>26798; 47477</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>20859; 40485</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>747; 5927</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>41016; 69024</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>54103; 83751</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2053; 11182</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>